--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/359cb36e40a46b53/Documents/UiPath/REF_YahooFinance_GetAnnualMetrics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384A66C8-4196-4423-A671-6715F6694093}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A956056-9471-481D-9013-704FFE3C1EAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>YahooFinanceURL</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>URL for Yahoo Finance Portal</t>
+  </si>
+  <si>
+    <t>YF_GAM_CompanyQueue</t>
   </si>
 </sst>
 </file>
@@ -248,6 +248,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -600,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -610,7 +614,9 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
@@ -2794,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2844,16 +2850,16 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
